--- a/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_full_Lifetime_Min.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_full_Lifetime_Min.xlsx
@@ -397,7 +397,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -411,16 +411,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.455684284667581E-17</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.894592024678585E-07</v>
+        <v>0.000272967848032444</v>
       </c>
       <c r="D2">
-        <v>0.7019255690660977</v>
+        <v>0.6425129170340084</v>
       </c>
       <c r="E2">
-        <v>0.9034683182445059</v>
+        <v>0.9981179422718006</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.573017879546552E-07</v>
+        <v>3.676266793030402E-10</v>
       </c>
       <c r="C3">
-        <v>0.06306732627985136</v>
+        <v>0.01301849549774341</v>
       </c>
       <c r="D3">
-        <v>0.6513003445992317</v>
+        <v>0.5650646918323966</v>
       </c>
       <c r="E3">
-        <v>0.8388692114087301</v>
+        <v>0.8375274494933351</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.455525622174766E-09</v>
+        <v>5.738750001259249E-12</v>
       </c>
       <c r="C4">
-        <v>0.03368461994811561</v>
+        <v>0.01176308004029253</v>
       </c>
       <c r="D4">
-        <v>0.5322594535634154</v>
+        <v>0.4710639843370272</v>
       </c>
       <c r="E4">
-        <v>0.6745337844781117</v>
+        <v>0.6754746205633251</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.859886114084314E-15</v>
+        <v>2.655036418867233E-07</v>
       </c>
       <c r="D5">
-        <v>0.03432694848831427</v>
+        <v>0.02552879416942394</v>
       </c>
       <c r="E5">
-        <v>0.05001255831081258</v>
+        <v>0.05205069953698283</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +492,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.455684284667678E-17</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.894592024679252E-07</v>
+        <v>0.000321815024269444</v>
       </c>
       <c r="D2">
-        <v>0.7019255690661447</v>
+        <v>0.7574896145430087</v>
       </c>
       <c r="E2">
-        <v>0.9034683182445664</v>
+        <v>1.176729611678621</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -523,16 +523,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.573017879546658E-07</v>
+        <v>4.334129076913899E-10</v>
       </c>
       <c r="C3">
-        <v>0.06306732627985559</v>
+        <v>0.01534813522821921</v>
       </c>
       <c r="D3">
-        <v>0.6513003445992755</v>
+        <v>0.6661821486545001</v>
       </c>
       <c r="E3">
-        <v>0.8388692114087867</v>
+        <v>0.9874016974079234</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -540,16 +540,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.455525622174932E-09</v>
+        <v>6.765690480558032E-12</v>
       </c>
       <c r="C4">
-        <v>0.03368461994811787</v>
+        <v>0.01386806510706791</v>
       </c>
       <c r="D4">
-        <v>0.5322594535634512</v>
+        <v>0.5553601592443344</v>
       </c>
       <c r="E4">
-        <v>0.674533784478157</v>
+        <v>0.796349764182275</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -560,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.859886114084543E-15</v>
+        <v>3.130151099233021E-07</v>
       </c>
       <c r="D5">
-        <v>0.03432694848831701</v>
+        <v>0.03009713259059886</v>
       </c>
       <c r="E5">
-        <v>0.05001255831081657</v>
+        <v>0.06136509209958291</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0009992687976177611</v>
+        <v>1.25495062176749E-05</v>
       </c>
       <c r="C2">
-        <v>0.0388804146330712</v>
+        <v>0.009554437463390963</v>
       </c>
       <c r="D2">
-        <v>1.58416514357327</v>
+        <v>1.1705746034569</v>
       </c>
       <c r="E2">
-        <v>2.070245676915336</v>
+        <v>1.468446836336422</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007378544841876201</v>
+        <v>8.531997183802409E-05</v>
       </c>
       <c r="C3">
-        <v>0.9788257055884967</v>
+        <v>0.03452244119359665</v>
       </c>
       <c r="D3">
-        <v>1.113102957809399</v>
+        <v>0.8629479954029199</v>
       </c>
       <c r="E3">
-        <v>1.552184907137255</v>
+        <v>1.05851380799705</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01863605446332176</v>
+        <v>0.0002529878698520342</v>
       </c>
       <c r="C4">
-        <v>0.2181163671426633</v>
+        <v>0.009297202904655476</v>
       </c>
       <c r="D4">
-        <v>1.325054156185886</v>
+        <v>0.7270741065098396</v>
       </c>
       <c r="E4">
-        <v>1.788123587539221</v>
+        <v>0.9219790427795368</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006033682714979844</v>
+        <v>7.949285739058928E-05</v>
       </c>
       <c r="C5">
-        <v>0.1530538999521927</v>
+        <v>0.02034304433440102</v>
       </c>
       <c r="D5">
-        <v>1.248721570152209</v>
+        <v>1.058507363696061</v>
       </c>
       <c r="E5">
-        <v>1.757829693982964</v>
+        <v>1.211814485320632</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.008341175675907163</v>
+        <v>0.0001076099402252142</v>
       </c>
       <c r="C2">
-        <v>0.1998293219214392</v>
+        <v>0.007453705115974282</v>
       </c>
       <c r="D2">
-        <v>2.423778873971562</v>
+        <v>1.585703061242156</v>
       </c>
       <c r="E2">
-        <v>2.836977175650993</v>
+        <v>1.666371100707123</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00966641920525574</v>
+        <v>0.0001148298763755546</v>
       </c>
       <c r="C3">
-        <v>1.821732615110078</v>
+        <v>0.02477726001429727</v>
       </c>
       <c r="D3">
-        <v>1.323147715383524</v>
+        <v>0.871165073528946</v>
       </c>
       <c r="E3">
-        <v>1.706756239850931</v>
+        <v>0.9403475543899196</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0527342217923131</v>
+        <v>0.0007353957242698485</v>
       </c>
       <c r="C4">
-        <v>0.3785855127530832</v>
+        <v>0.006997433578934435</v>
       </c>
       <c r="D4">
-        <v>1.78872485157633</v>
+        <v>0.9332746844457358</v>
       </c>
       <c r="E4">
-        <v>2.365167495720378</v>
+        <v>1.175525920959753</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02918342513006148</v>
+        <v>0.0003950110178780338</v>
       </c>
       <c r="C5">
-        <v>0.4967583563784486</v>
+        <v>0.008880409956795551</v>
       </c>
       <c r="D5">
-        <v>2.136331103838482</v>
+        <v>1.528869999002913</v>
       </c>
       <c r="E5">
-        <v>2.530940646039109</v>
+        <v>1.410775496041512</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_full_Lifetime_Min.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_full_Lifetime_Min.xlsx
@@ -411,16 +411,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.455684284667581E-17</v>
       </c>
       <c r="C2">
-        <v>0.000272967848032444</v>
+        <v>0.003234355465845292</v>
       </c>
       <c r="D2">
-        <v>0.6425129170340084</v>
+        <v>0.7019255690660977</v>
       </c>
       <c r="E2">
-        <v>0.9981179422718006</v>
+        <v>0.9034683182445059</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.676266793030402E-10</v>
+        <v>1.573017879546552E-07</v>
       </c>
       <c r="C3">
-        <v>0.01301849549774341</v>
+        <v>0.0548952861088679</v>
       </c>
       <c r="D3">
-        <v>0.5650646918323966</v>
+        <v>0.6513003445992317</v>
       </c>
       <c r="E3">
-        <v>0.8375274494933351</v>
+        <v>0.8388692114087301</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.738750001259249E-12</v>
+        <v>2.455525622174766E-09</v>
       </c>
       <c r="C4">
-        <v>0.01176308004029253</v>
+        <v>0.05091945878934708</v>
       </c>
       <c r="D4">
-        <v>0.4710639843370272</v>
+        <v>0.5322594535634154</v>
       </c>
       <c r="E4">
-        <v>0.6754746205633251</v>
+        <v>0.6745337844781117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.655036418867233E-07</v>
+        <v>0.0001125284018505872</v>
       </c>
       <c r="D5">
-        <v>0.02552879416942394</v>
+        <v>0.03432694848831427</v>
       </c>
       <c r="E5">
-        <v>0.05205069953698283</v>
+        <v>0.05001255831081258</v>
       </c>
     </row>
   </sheetData>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.455684284667678E-17</v>
       </c>
       <c r="C2">
-        <v>0.000321815024269444</v>
+        <v>0.00323435546584551</v>
       </c>
       <c r="D2">
-        <v>0.7574896145430087</v>
+        <v>0.7019255690661447</v>
       </c>
       <c r="E2">
-        <v>1.176729611678621</v>
+        <v>0.9034683182445664</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -523,16 +523,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.334129076913899E-10</v>
+        <v>1.573017879546658E-07</v>
       </c>
       <c r="C3">
-        <v>0.01534813522821921</v>
+        <v>0.05489528610887159</v>
       </c>
       <c r="D3">
-        <v>0.6661821486545001</v>
+        <v>0.6513003445992755</v>
       </c>
       <c r="E3">
-        <v>0.9874016974079234</v>
+        <v>0.8388692114087867</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -540,16 +540,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.765690480558032E-12</v>
+        <v>2.455525622174932E-09</v>
       </c>
       <c r="C4">
-        <v>0.01386806510706791</v>
+        <v>0.05091945878935049</v>
       </c>
       <c r="D4">
-        <v>0.5553601592443344</v>
+        <v>0.5322594535634512</v>
       </c>
       <c r="E4">
-        <v>0.796349764182275</v>
+        <v>0.674533784478157</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -560,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.130151099233021E-07</v>
+        <v>0.0001125284018505962</v>
       </c>
       <c r="D5">
-        <v>0.03009713259059886</v>
+        <v>0.03432694848831701</v>
       </c>
       <c r="E5">
-        <v>0.06136509209958291</v>
+        <v>0.05001255831081657</v>
       </c>
     </row>
   </sheetData>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.25495062176749E-05</v>
+        <v>0.0009992687976177611</v>
       </c>
       <c r="C2">
-        <v>0.009554437463390963</v>
+        <v>0.08229410131195405</v>
       </c>
       <c r="D2">
-        <v>1.1705746034569</v>
+        <v>1.58416514357327</v>
       </c>
       <c r="E2">
-        <v>1.468446836336422</v>
+        <v>2.070245676915336</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.531997183802409E-05</v>
+        <v>0.007378544841876201</v>
       </c>
       <c r="C3">
-        <v>0.03452244119359665</v>
+        <v>0.09549128864548032</v>
       </c>
       <c r="D3">
-        <v>0.8629479954029199</v>
+        <v>1.113102957809399</v>
       </c>
       <c r="E3">
-        <v>1.05851380799705</v>
+        <v>1.552184907137255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0002529878698520342</v>
+        <v>0.01863605446332176</v>
       </c>
       <c r="C4">
-        <v>0.009297202904655476</v>
+        <v>0.07341341649216067</v>
       </c>
       <c r="D4">
-        <v>0.7270741065098396</v>
+        <v>1.325054156185886</v>
       </c>
       <c r="E4">
-        <v>0.9219790427795368</v>
+        <v>1.788123587539221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.949285739058928E-05</v>
+        <v>0.006033682714979844</v>
       </c>
       <c r="C5">
-        <v>0.02034304433440102</v>
+        <v>0.06910107071849605</v>
       </c>
       <c r="D5">
-        <v>1.058507363696061</v>
+        <v>1.248721570152209</v>
       </c>
       <c r="E5">
-        <v>1.211814485320632</v>
+        <v>1.757829693982964</v>
       </c>
     </row>
   </sheetData>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0001076099402252142</v>
+        <v>0.008341175675907163</v>
       </c>
       <c r="C2">
-        <v>0.007453705115974282</v>
+        <v>0.1101398272791471</v>
       </c>
       <c r="D2">
-        <v>1.585703061242156</v>
+        <v>2.423778873971562</v>
       </c>
       <c r="E2">
-        <v>1.666371100707123</v>
+        <v>2.836977175650993</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0001148298763755546</v>
+        <v>0.00966641920525574</v>
       </c>
       <c r="C3">
-        <v>0.02477726001429727</v>
+        <v>0.1041167508083667</v>
       </c>
       <c r="D3">
-        <v>0.871165073528946</v>
+        <v>1.323147715383524</v>
       </c>
       <c r="E3">
-        <v>0.9403475543899196</v>
+        <v>1.706756239850931</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0007353957242698485</v>
+        <v>0.0527342217923131</v>
       </c>
       <c r="C4">
-        <v>0.006997433578934435</v>
+        <v>0.09318616779647268</v>
       </c>
       <c r="D4">
-        <v>0.9332746844457358</v>
+        <v>1.78872485157633</v>
       </c>
       <c r="E4">
-        <v>1.175525920959753</v>
+        <v>2.365167495720378</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003950110178780338</v>
+        <v>0.02918342513006148</v>
       </c>
       <c r="C5">
-        <v>0.008880409956795551</v>
+        <v>0.107866079942882</v>
       </c>
       <c r="D5">
-        <v>1.528869999002913</v>
+        <v>2.136331103838482</v>
       </c>
       <c r="E5">
-        <v>1.410775496041512</v>
+        <v>2.530940646039109</v>
       </c>
     </row>
   </sheetData>
